--- a/loaded_influencer_data/lifeofgracy_/lifeofgracy__video.xlsx
+++ b/loaded_influencer_data/lifeofgracy_/lifeofgracy__video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7471162418094279943</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="C2" t="n">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="D2" t="n">
         <v>110</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.620967741935483</v>
+        <v>7.579365079365079</v>
       </c>
       <c r="I2" t="n">
-        <v>6.733870967741935</v>
+        <v>6.706349206349207</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8870967741935484</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="L2" t="n">
-        <v>4.588709677419355</v>
+        <v>4.547619047619047</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -559,535 +559,789 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lifeofgracy_/video/7489582102204157191</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>750</v>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Right when my hair started healing😭
+Brush from @revlon
+#heatstyling #fypage #fyp #exploremore #foryou</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.266666666666666</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lifeofgracy_/video/7489290429024718098</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>675</v>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>@MEDIHEAL Global Hyper collagen mask has an entire bottle of collagen serum 🤯😱
+Also please don’t not keep this mask for overnight as it may cause skin dryness or irritation💗✨</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8.74074074074074</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.814814814814815</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.925925925925926</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lifeofgracy_/video/7489221021766094087</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>620</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Who else loves the scent of fresh linen 😍🤭💗✨</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10.96774193548387</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.032258064516128</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.935483870967742</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lifeofgracy_/video/7489152930759707912</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>802</v>
+      </c>
+      <c r="C6" t="n">
+        <v>73</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>March was rough with me. April please be kind ✨💗🫶🏻
+#trending #fyp #viral #mentalhealthmatters</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>11.22194513715711</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.102244389027431</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.119700748129676</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4987531172069825</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lifeofgracy_/video/7489147991815687432</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>810</v>
+      </c>
+      <c r="C7" t="n">
+        <v>96</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>You’ll be just fine 💗 (sorry for not being active, I don’t have enough storage on my iPhone to record and didn’t have the enough energy to record and was dealing with severe breakouts on my forehead) 🥲😭</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>14.32098765432099</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.85185185185185</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.469135802469136</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.358024691358025</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7485089092460432647</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>973</v>
-      </c>
-      <c r="C3" t="n">
-        <v>125</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="B8" t="n">
+        <v>1196</v>
+      </c>
+      <c r="C8" t="n">
+        <v>151</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Inactive in social media = active in real life🫠
 Sorry for being MIA 💗 will be posting more content soon ✨🫶🏻</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>14.69681397738952</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12.84686536485098</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.849948612538541</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7194244604316548</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="H8" t="n">
+        <v>14.54849498327759</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.62541806020067</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.923076923076923</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.003344481605351</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7483658012381531410</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1720</v>
-      </c>
-      <c r="C4" t="n">
-        <v>181</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="B9" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C9" t="n">
+        <v>194</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Manifesting this for everyone who sees this video on their fyp today 💗🫶🏻
 #goodvibes</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>11.62790697674419</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.52325581395349</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.104651162790698</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.813953488372093</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="H9" t="n">
+        <v>11.63993792033109</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10.03621314019659</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.603724780134506</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8794619762027935</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/photo/7483614761893072146</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1334</v>
-      </c>
-      <c r="C5" t="n">
-        <v>119</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B10" t="n">
+        <v>1501</v>
+      </c>
+      <c r="C10" t="n">
+        <v>129</v>
+      </c>
+      <c r="D10" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>#frenchtoast #fyp #fyppppppppppppppppppppppp #trending #lifelately #relatable #explore #exploremore</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>9.145427286356822</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.920539730134932</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.2248875562218891</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5997001499250375</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H10" t="n">
+        <v>8.794137241838774</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.594270486342438</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1998667554963358</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5996002664890073</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7483247748427320584</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B11" t="n">
         <v>3259</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C11" t="n">
         <v>251</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D11" t="n">
         <v>35</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>24</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>I can’t believe when I’m saying that I am slowly living the life I dreamt of being a “content creator”. I loved playing with video editing, creating something and when I saw that this is also an actual job. I started creating videos on social media and posted without worrying what others would say.</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H11" t="n">
         <v>8.775698066891685</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I11" t="n">
         <v>7.701749002761583</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1.073949064130101</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L11" t="n">
         <v>0.7364222154034981</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7483243022910573832</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B12" t="n">
         <v>1809</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C12" t="n">
         <v>130</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D12" t="n">
         <v>17</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>12</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Only this type of energy 💗🫶🏻🤭✨
 #girls #girlssupportgirls #girly #girlythings #girlytok #lanadelray</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H12" t="n">
         <v>8.126036484245439</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I12" t="n">
         <v>7.186290768380321</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.9397457158651189</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L12" t="n">
         <v>0.6633499170812603</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/photo/7483050897908567304</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B13" t="n">
         <v>7732</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C13" t="n">
         <v>755</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D13" t="n">
         <v>275</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>81</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>I am forever grateful to all my supportive besties here who always engaged, commented, liked or even just saw my post or videos on their fyp. If even my one post can make a difference in your life then my purpose is fulfilled 🥺</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H13" t="n">
         <v>13.32126228660114</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I13" t="n">
         <v>9.764614588722194</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.556647697878944</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L13" t="n">
         <v>1.047594412829798</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7483025345516555528</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B14" t="n">
         <v>1308</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C14" t="n">
         <v>69</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>7</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>My skin loves this amazing moisturiser and barrier care cream 😍
 @dr.althea_official
 #dralthea #sensitiveskin</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H14" t="n">
         <v>5.73394495412844</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I14" t="n">
         <v>5.275229357798166</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.4587155963302753</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L14" t="n">
         <v>0.5351681957186544</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7482844340360940818</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B15" t="n">
         <v>2390</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C15" t="n">
         <v>210</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D15" t="n">
         <v>65</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>34</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Monday motivation from the Queen Mel 💗✨🫶🏻 do what makes you happy 💌
 #contentcreator</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H15" t="n">
         <v>11.50627615062761</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I15" t="n">
         <v>8.786610878661087</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.719665271966528</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L15" t="n">
         <v>1.422594142259414</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7482647747955297554</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B16" t="n">
         <v>2883</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C16" t="n">
         <v>143</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D16" t="n">
         <v>32</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>8</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>If this is your vibe, Letss be friends 💗✨💌🤭
 #contentcreator #smallcontentcreator</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H16" t="n">
         <v>6.070065903572668</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I16" t="n">
         <v>4.960110995490808</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.109954908081859</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L16" t="n">
         <v>0.2774887270204648</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7482624337183264007</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B17" t="n">
         <v>2677</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C17" t="n">
         <v>253</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D17" t="n">
         <v>46</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>19</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Just hit that record button and post it 💗
 #prpackage #pr #fyp #fypage #fyppppppppppppppppppppppp</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H17" t="n">
         <v>11.16921927530818</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I17" t="n">
         <v>9.45087784833769</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1.71834142697049</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L17" t="n">
         <v>0.7097497198356369</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7482579523104509191</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B18" t="n">
         <v>1728</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C18" t="n">
         <v>63</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D18" t="n">
         <v>3</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>6</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>This combo is 🔥
 Products used
@@ -1096,1909 +1350,1706 @@
 💗Hyalu-cica Water-fut sun serum</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H18" t="n">
         <v>3.819444444444445</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I18" t="n">
         <v>3.645833333333333</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.1736111111111111</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L18" t="n">
         <v>0.3472222222222222</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7482431154759519506</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B19" t="n">
         <v>1829</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C19" t="n">
         <v>121</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D19" t="n">
         <v>19</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>10</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>You are enough💗🫶🏻
 #girls #girlssupportgirls #fyppppppppppppppppppppppp #fypage #explore</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H19" t="n">
         <v>7.654455986878076</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I19" t="n">
         <v>6.61563696008748</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.038819026790596</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L19" t="n">
         <v>0.5467468562055768</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7482145216938429704</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B20" t="n">
         <v>1718</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C20" t="n">
         <v>163</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D20" t="n">
         <v>41</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>13</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Comment if you saw this video in ur fyp 💗✨💌
 #smallcontentcreator #fyp</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H20" t="n">
         <v>11.87427240977881</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I20" t="n">
         <v>9.487776484284051</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.386495925494761</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L20" t="n">
         <v>0.7566938300349243</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7482100921938332936</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B21" t="n">
         <v>1738</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C21" t="n">
         <v>99</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D21" t="n">
         <v>23</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>10</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Like why??? Just text me plsss 💌🫶🏻🫠
 #roadto25k #smallcontentcreator #microinfluencer #relatable</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H21" t="n">
         <v>7.019562715765247</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I21" t="n">
         <v>5.69620253164557</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1.323360184119678</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L21" t="n">
         <v>0.5753739930955121</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7482061666549501191</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B22" t="n">
         <v>1566</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C22" t="n">
         <v>107</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D22" t="n">
         <v>25</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>19</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Good morning 🤭 just a daily reminder 💗✨ #roadto25k #smallcontentcreator #microinfluencer</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H22" t="n">
         <v>8.42911877394636</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I22" t="n">
         <v>6.832694763729247</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.596424010217114</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L22" t="n">
         <v>1.213282247765006</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7481935208393051410</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B23" t="n">
         <v>4176</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C23" t="n">
         <v>367</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D23" t="n">
         <v>152</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>35</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Pls tiktok 🥺 #roadto25k #smallcontentcreator #microinfluencer #tiktokalgorithm #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H23" t="n">
         <v>12.42816091954023</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I23" t="n">
         <v>8.788314176245212</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.639846743295019</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L23" t="n">
         <v>0.8381226053639846</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7481726334411083016</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B24" t="n">
         <v>1477</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C24" t="n">
         <v>116</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>3</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Pls tiktok 🥺 #roadto25k #smallcontentcreator #microinfluencer #tiktokalgorithm #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H24" t="n">
         <v>9.41096817874069</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I24" t="n">
         <v>7.853757616790793</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>1.557210561949898</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L24" t="n">
         <v>0.2031144211238998</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7481495183599684872</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B25" t="n">
         <v>1716</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C25" t="n">
         <v>87</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D25" t="n">
         <v>9</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>9</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Dinner scenes 💗🫠
 #fyppppppppppppppppppppppp #contentcreator #microinfluencer</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H25" t="n">
         <v>5.594405594405594</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I25" t="n">
         <v>5.06993006993007</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.5244755244755245</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L25" t="n">
         <v>0.5244755244755245</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7479918830135856391</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>12100</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>874</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D26" t="n">
         <v>131</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>143</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Delusional??? Why not?
 💗
 #fyppppppppppppppppppppppp #smallcontentcreator #contentcreator</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H26" t="n">
         <v>8.305785123966942</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I26" t="n">
         <v>7.223140495867769</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.082644628099174</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L26" t="n">
         <v>1.181818181818182</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7479670816712510738</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B27" t="n">
         <v>3935</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C27" t="n">
         <v>146</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D27" t="n">
         <v>22</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>29</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Literally how I feel rn 👀💗🫠😭 When will I get accepted into @TikTok shop #relatable #viralvideo #trendingaudio</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H27" t="n">
         <v>4.269377382465057</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I27" t="n">
         <v>3.710292249047014</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.5590851334180432</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L27" t="n">
         <v>0.7369758576874206</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7479638581460487431</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B28" t="n">
         <v>3611</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C28" t="n">
         <v>156</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D28" t="n">
         <v>16</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>29</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>People can tell you anything they want but trust the VIBE not the words 🫠👀
 #foryou #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H28" t="n">
         <v>4.763223483799502</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I28" t="n">
         <v>4.320132927166989</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.4430905566325117</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L28" t="n">
         <v>0.8031016338964275</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/photo/7479633669959781640</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B29" t="n">
         <v>17400</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C29" t="n">
         <v>1313</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D29" t="n">
         <v>325</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>152</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Thank you for this amazing community, never would’ve thought that I will be here in 2 months of consistent posting. I am so so grateful I didn’t give up 🥺💗</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H29" t="n">
         <v>9.413793103448276</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I29" t="n">
         <v>7.545977011494252</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>1.867816091954023</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L29" t="n">
         <v>0.8735632183908045</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7479582355229854994</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B30" t="n">
         <v>2793</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C30" t="n">
         <v>144</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D30" t="n">
         <v>25</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>19</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>My type of clubbing 💗😭🫠
 #homebody #homebodythings #homebodylife #explore #exploremore</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H30" t="n">
         <v>6.050841389187254</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I30" t="n">
         <v>5.155746509129968</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.895094880057286</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L30" t="n">
         <v>0.6802721088435374</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7479521868567956744</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B31" t="n">
         <v>2131</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C31" t="n">
         <v>137</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D31" t="n">
         <v>29</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>16</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>At least let me get to my hook 🥺😭
 #trendingvideo #trendingnow #smallcontentcreator #contentcreator</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H31" t="n">
         <v>7.789770061004224</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I31" t="n">
         <v>6.428906616611919</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1.360863444392304</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L31" t="n">
         <v>0.7508212106992023</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7479520031156620562</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B32" t="n">
         <v>2427</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C32" t="n">
         <v>72</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D32" t="n">
         <v>8</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>8</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>“Never have I ever”
 I also put Garlic to get rid of my moles and it burned my skin 😭
 #acne #relatable #toothpaste</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H32" t="n">
         <v>3.296250515039143</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I32" t="n">
         <v>2.966625463535229</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.3296250515039143</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L32" t="n">
         <v>0.3296250515039143</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7479342475845324050</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B33" t="n">
         <v>4171</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C33" t="n">
         <v>376</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D33" t="n">
         <v>103</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>34</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Something is better than NOTHING 💗🫠
 #relatable #contentcreator #smallcontentcreator</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H33" t="n">
         <v>11.4840565811556</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I33" t="n">
         <v>9.014624790218173</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>2.469431790937425</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L33" t="n">
         <v>0.8151522416686646</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7479139897677188359</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B34" t="n">
         <v>25500</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C34" t="n">
         <v>327</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D34" t="n">
         <v>10</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>15</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>The truth about Purito Panthenol Cream😨😱 @PURITO SEOUL 💗🫠✨
 #Purito #panthenolcream #koreanskincare</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H34" t="n">
         <v>1.32156862745098</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I34" t="n">
         <v>1.28235294117647</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.0392156862745098</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L34" t="n">
         <v>0.0588235294117647</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7478894853871455496</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B35" t="n">
         <v>8055</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C35" t="n">
         <v>735</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D35" t="n">
         <v>138</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>101</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>I watch them 🥺🫶🏻
 #fyp #relatable #explore #smallcontentcreator #fypage</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H35" t="n">
         <v>10.83798882681564</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I35" t="n">
         <v>9.124767225325884</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>1.713221601489758</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L35" t="n">
         <v>1.253879577901924</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7478869338439683335</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B36" t="n">
         <v>2290</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C36" t="n">
         <v>147</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D36" t="n">
         <v>34</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>13</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>I am so so IMPULSIVE!!! Took me 2 hourss and more. What do you think about the results??
 #roommakeover</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H36" t="n">
         <v>7.903930131004366</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I36" t="n">
         <v>6.419213973799126</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>1.48471615720524</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L36" t="n">
         <v>0.5676855895196506</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7478807647383194887</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B37" t="n">
         <v>1919</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C37" t="n">
         <v>109</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D37" t="n">
         <v>16</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>13</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>I am so so IMPULSIVE!!! Took me 2 hourss and more. What do you think about the results??
 #roommakeover</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H37" t="n">
         <v>6.513809275664409</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I37" t="n">
         <v>5.680041688379364</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.8337675872850442</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L37" t="n">
         <v>0.6774361646690985</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7478793732284763400</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B38" t="n">
         <v>1854</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C38" t="n">
         <v>117</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D38" t="n">
         <v>22</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>6</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Just upgraded my gold accessories with @Cali Tiger #notsponsored #fyp</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H38" t="n">
         <v>7.497303128371089</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I38" t="n">
         <v>6.310679611650485</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>1.186623516720604</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L38" t="n">
         <v>0.3236245954692557</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7478778606534102280</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B39" t="n">
         <v>7323</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C39" t="n">
         <v>888</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D39" t="n">
         <v>274</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>109</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Its always the one which I take so many hours to edit and record!! Why tiktok😭
 #smallcontentcreator #fyp</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H39" t="n">
         <v>15.86781373753926</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I39" t="n">
         <v>12.12617779598525</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>3.741635941554008</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L39" t="n">
         <v>1.488461013245937</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7478773564116667656</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B40" t="n">
         <v>2485</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C40" t="n">
         <v>197</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D40" t="n">
         <v>26</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>17</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>I will keep posting more videos hahah!! Haters gonna hate 💗
 #trending #trendingaudio #fyp #explore</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H40" t="n">
         <v>8.9738430583501</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I40" t="n">
         <v>7.927565392354125</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>1.046277665995976</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L40" t="n">
         <v>0.6841046277665996</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7478756819284905223</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B41" t="n">
         <v>1718</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C41" t="n">
         <v>77</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D41" t="n">
         <v>9</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>5</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Proof that Korean sunscreen theory is real 😳😱🤯
 No whitecast, no eye sting, glowy, plumpy skin only.
 Also how can we forget about the hydration and protection it gives to our skin 🥹💗</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H41" t="n">
         <v>5.005820721769499</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I41" t="n">
         <v>4.481955762514551</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.5238649592549476</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L41" t="n">
         <v>0.2910360884749709</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7478606315712040199</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B42" t="n">
         <v>1322</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C42" t="n">
         <v>72</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D42" t="n">
         <v>11</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>4</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Say goodbye to dry, irritated skin! ✨
 Watch this magic:
 💗LAGOM Gel-to-Water Cleanser leaves my skin hydrated, soothed, and glowing in minutes!</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H42" t="n">
         <v>6.278366111951589</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I42" t="n">
         <v>5.446293494704992</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.8320726172465961</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L42" t="n">
         <v>0.302571860816944</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7478575652325592338</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B43" t="n">
         <v>1495</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C43" t="n">
         <v>73</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D43" t="n">
         <v>11</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>8</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>One product for everything- hyperpigmentation, acne spots, spot treatment 😍
 @VT Cosmetics US</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H43" t="n">
         <v>5.618729096989967</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I43" t="n">
         <v>4.882943143812709</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.7357859531772575</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L43" t="n">
         <v>0.5351170568561873</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7478427307384802578</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B44" t="n">
         <v>1838</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C44" t="n">
         <v>98</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D44" t="n">
         <v>14</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>14</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>I can’t be the only one who keeps forgetting to apply sunscreen during winters😭😭
 I got this one from</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H44" t="n">
         <v>6.093579978237215</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I44" t="n">
         <v>5.331882480957562</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.7616974972796519</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L44" t="n">
         <v>0.7616974972796519</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7478384052693699848</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B45" t="n">
         <v>1571</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C45" t="n">
         <v>103</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D45" t="n">
         <v>22</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>14</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Girlies let me put you on my barrier care because it saved my skin🤭💗✨ @PURITO SEOUL
 #barriercare</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H45" t="n">
         <v>7.956715467854869</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I45" t="n">
         <v>6.556333545512412</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>1.400381922342457</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L45" t="n">
         <v>0.8911521323997454</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7478214085541219592</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B46" t="n">
         <v>1989</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C46" t="n">
         <v>126</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D46" t="n">
         <v>25</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>19</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>To be honest I am just grateful that I am here💗✨ The world is so tough but so are you✨💗🫶🏻</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H46" t="n">
         <v>7.59175465057818</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I46" t="n">
         <v>6.334841628959276</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>1.256913021618904</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L46" t="n">
         <v>0.9552538964303671</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7477994915062975762</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B47" t="n">
         <v>1247</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C47" t="n">
         <v>62</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D47" t="n">
         <v>13</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>6</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>The ultimate Acne spot treatment ✨
 If you want to reduce your acne within 7 days, try these powerful products from</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H47" t="n">
         <v>6.014434643143544</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I47" t="n">
         <v>4.971932638331997</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>1.042502004811548</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L47" t="n">
         <v>0.4811547714514836</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/photo/7477903797570899207</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B48" t="n">
         <v>14700</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C48" t="n">
         <v>1744</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D48" t="n">
         <v>293</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>191</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Two months ago, if you would have told me this will be my life then I wouldn’t have believed you but the truth is I took a chance, a risk and just decided to post HIGH QUALITY, ENGAGING Contents instead of just posting a day in my life or something which is considered to be a “selfish type of content.”</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H48" t="n">
         <v>13.85714285714286</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I48" t="n">
         <v>11.86394557823129</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>1.993197278911565</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L48" t="n">
         <v>1.299319727891157</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7477878069336755474</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B49" t="n">
         <v>1255</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C49" t="n">
         <v>86</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D49" t="n">
         <v>22</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>9</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Get Unready with me ✨💗🤭
 This was my first ever experience of trying these products and I am in love with it 💗✨</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H49" t="n">
         <v>8.605577689243029</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I49" t="n">
         <v>6.852589641434263</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>1.752988047808765</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L49" t="n">
         <v>0.7171314741035857</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7477859230813310215</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B50" t="n">
         <v>2524</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C50" t="n">
         <v>254</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D50" t="n">
         <v>99</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>33</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>But I’ll still do it everyday for my besties here 💗✨
 #microinfluencer #fyp</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H50" t="n">
         <v>13.98573692551505</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I50" t="n">
         <v>10.06339144215531</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>3.922345483359747</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L50" t="n">
         <v>1.307448494453249</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lifeofgracy_/video/7477760284552072466</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B51" t="n">
         <v>1553</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C51" t="n">
         <v>108</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D51" t="n">
         <v>30</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>17</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Posting my work locker room hahaha!!
 When will this content creation start paying off so that I can stay home and make my cute little silly videos ;)</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H51" t="n">
         <v>8.886027044430135</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I51" t="n">
         <v>6.95428203477141</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>1.931745009658725</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L51" t="n">
         <v>1.094655505473278</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-03-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lifeofgracy_/video/7477665923055357191</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2505</v>
-      </c>
-      <c r="C47" t="n">
-        <v>258</v>
-      </c>
-      <c r="D47" t="n">
-        <v>111</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>26</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Do you want to form an alliance with me?? 💗🎀✨🥹
-#fyp #fyppppppppppppppppppppppp #explore</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>14.73053892215569</v>
-      </c>
-      <c r="I47" t="n">
-        <v>10.29940119760479</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4.431137724550898</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.037924151696607</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lifeofgracy_/video/7477652843030187272</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C48" t="n">
-        <v>185</v>
-      </c>
-      <c r="D48" t="n">
-        <v>30</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>22</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Morning routine 🧸💗🎀✨
-#fyp #foryou #fyppppppppppppppppppppppp #morningroutine</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10.75537768884442</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9.254627313656828</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1.500750375187594</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.100550275137569</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lifeofgracy_/video/7477336208733916424</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>3369</v>
-      </c>
-      <c r="C49" t="n">
-        <v>262</v>
-      </c>
-      <c r="D49" t="n">
-        <v>35</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>75</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Replying to @madison ✞
-#howtogetpr #howtogetcollab #howtogetcollabs #brandcollabs #onlinepresence</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>8.81567230632235</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7.776788364499852</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.038883941822499</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.226179875333927</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lifeofgracy_/video/7477322265361698066</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>8421</v>
-      </c>
-      <c r="C50" t="n">
-        <v>950</v>
-      </c>
-      <c r="D50" t="n">
-        <v>220</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>99</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Feeling so grateful for all the love and support you all have showed me so far💗✨ hoping to grow even more and bring more joy and happiness to your life through my content 🥹✨🫶🏻</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>13.89383683648023</v>
-      </c>
-      <c r="I50" t="n">
-        <v>11.28132050825318</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.612516328227052</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.175632347702173</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
         </is>
       </c>
     </row>
